--- a/medicine/Œil et vue/Trouble_de_la_vision/Trouble_de_la_vision.xlsx
+++ b/medicine/Œil et vue/Trouble_de_la_vision/Trouble_de_la_vision.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un trouble de la vision désigne une incapacité visuelle plus ou moins importante causée par une maladie, un traumatisme, ou par des conditions congénitales, brutales ou progressives, qui requièrent une correction médicale, chirurgicale ou l'aide de verres correcteurs[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un trouble de la vision désigne une incapacité visuelle plus ou moins importante causée par une maladie, un traumatisme, ou par des conditions congénitales, brutales ou progressives, qui requièrent une correction médicale, chirurgicale ou l'aide de verres correcteurs.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe différents troubles de la vision :
 maladies de dégénérescence de la rétine (comme l'amaurose congénitale de Leber ou la rétinite pigmentaire), qui conduisent progressivement à la cécité. Il s'agit de maladies génétiques ;
